--- a/biology/Médecine/Hôpitaux_universitaires_d'Assouan/Hôpitaux_universitaires_d'Assouan.xlsx
+++ b/biology/Médecine/Hôpitaux_universitaires_d'Assouan/Hôpitaux_universitaires_d'Assouan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_d%27Assouan</t>
+          <t>Hôpitaux_universitaires_d'Assouan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les hôpitaux universitaires d'Assouan sont un groupe d'hôpitaux universitaires dans la région d'Al Sail dans la ville d'Assouan[1].
+Les hôpitaux universitaires d'Assouan sont un groupe d'hôpitaux universitaires dans la région d'Al Sail dans la ville d'Assouan.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_d%27Assouan</t>
+          <t>Hôpitaux_universitaires_d'Assouan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Hôpitaux universitaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le principal hôpital de chirurgie.
 Accueil hospitalier et urgence
 Hôpital de médecine interne
 Hôpital des centres médicaux spécialisés
-Hôpital d'un jour à New Assouan[2]</t>
+Hôpital d'un jour à New Assouan</t>
         </is>
       </c>
     </row>
